--- a/Relação Rotinas Lisp.xlsx
+++ b/Relação Rotinas Lisp.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documents\Guilherme.doc\Blocos\Rotinas-lisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE944069-6B43-4D78-A906-0EE0D1371703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$B$3:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$B$3:$G$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Relatório das Rotinas Lisp</t>
   </si>
@@ -68,9 +69,6 @@
     <t>Numeração Degrais</t>
   </si>
   <si>
-    <t>Linha de Quebra</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -141,13 +139,46 @@
   </si>
   <si>
     <t>Nome</t>
+  </si>
+  <si>
+    <t>Bloco Dinâmico</t>
+  </si>
+  <si>
+    <t>Desenha Escada</t>
+  </si>
+  <si>
+    <t>Layers Iniciais</t>
+  </si>
+  <si>
+    <t>LayersIniciais.lsp</t>
+  </si>
+  <si>
+    <t>initlayer</t>
+  </si>
+  <si>
+    <t>Linha Fundação</t>
+  </si>
+  <si>
+    <t>linhaViga.lsp</t>
+  </si>
+  <si>
+    <t>controleLinhaViga.lsp</t>
+  </si>
+  <si>
+    <t>caixaLinhaViga.dcl</t>
+  </si>
+  <si>
+    <t>lineviga</t>
+  </si>
+  <si>
+    <t>Linha de quebra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +194,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +229,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -474,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -497,7 +555,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -510,6 +567,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,6 +590,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,11 +870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,18 +887,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
-        <v>37</v>
+      <c r="B3" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>1</v>
@@ -840,35 +909,34 @@
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -876,18 +944,18 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>34</v>
+      <c r="G5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -895,66 +963,63 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="16"/>
+      <c r="C7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="32" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="16"/>
+      <c r="C9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="26" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
@@ -964,91 +1029,115 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="18" t="s">
-        <v>35</v>
+      <c r="G10" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="18" t="s">
-        <v>35</v>
+      <c r="G11" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>14</v>
+      <c r="B12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
@@ -1056,15 +1145,28 @@
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="19"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1079,8 +1181,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G19">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$4:$J$6</formula1>
     </dataValidation>
   </dataValidations>
